--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_39_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_39_.xlsx
@@ -1563,7 +1563,7 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1479345</v>
       </c>

--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_39_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_39_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:11</t>
+          <t>Total number of containers:11</t>
         </is>
       </c>
     </row>
